--- a/Projects/Federal Reserve Data/LFAggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/LFAggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>LF</t>
   </si>
@@ -28,28 +28,19 @@
     <t>C/A Lag</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>r2_adj</t>
-  </si>
-  <si>
-    <t>-0.448***</t>
-  </si>
-  <si>
-    <t>0.144**</t>
-  </si>
-  <si>
-    <t>2.432**</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.353***</t>
-  </si>
-  <si>
-    <t>4.659***</t>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>-0.454***</t>
+  </si>
+  <si>
+    <t>0.159**</t>
+  </si>
+  <si>
+    <t>-0.261**</t>
+  </si>
+  <si>
+    <t>-0.326***</t>
   </si>
 </sst>
 </file>
@@ -407,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -437,32 +428,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.23</v>
-      </c>
-      <c r="C5">
-        <v>0.52</v>
+      <c r="B4">
+        <v>0.2764108362282933</v>
+      </c>
+      <c r="C4">
+        <v>0.5007560750113754</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/Federal Reserve Data/LFAggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/LFAggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -16,31 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>C/A</t>
+  </si>
+  <si>
     <t>LF</t>
   </si>
   <si>
-    <t>C/A</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>C/A Lag</t>
   </si>
   <si>
     <t>LF Lag</t>
   </si>
   <si>
-    <t>C/A Lag</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>-0.454***</t>
-  </si>
-  <si>
-    <t>0.159**</t>
-  </si>
-  <si>
-    <t>-0.261**</t>
-  </si>
-  <si>
     <t>-0.326***</t>
+  </si>
+  <si>
+    <t>-0.261*</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>-0.454**</t>
   </si>
 </sst>
 </file>
@@ -398,13 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +417,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -425,24 +428,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.2764108362282933</v>
-      </c>
-      <c r="C4">
-        <v>0.5007560750113754</v>
       </c>
     </row>
   </sheetData>
